--- a/core/public/product_template.xlsx
+++ b/core/public/product_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\sombokchab\core\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudranatapu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA8694-783F-4484-98A9-4F26EF410B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45788DC-02A1-4237-8F79-73AFB757E845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,75 +31,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>sku</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
-    <t>subcategory</t>
-  </si>
-  <si>
-    <t>childcategory</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>alert_quantity</t>
-  </si>
-  <si>
-    <t>vat_percent</t>
-  </si>
-  <si>
-    <t>minimum_sale_price</t>
-  </si>
-  <si>
-    <t>minimum_wholesale_price</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>purchase_price</t>
-  </si>
-  <si>
-    <t>selling_price</t>
-  </si>
-  <si>
-    <t>discount_type</t>
-  </si>
-  <si>
-    <t>discount_value</t>
-  </si>
-  <si>
-    <t>wholesale_price</t>
-  </si>
-  <si>
-    <t>minimum_wholesale_quantity</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>opening_stock_qty</t>
-  </si>
-  <si>
-    <t>opening_stock_purchase_price_rate</t>
-  </si>
-  <si>
-    <t>author</t>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>sale_price</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>min_purchase</t>
+  </si>
+  <si>
+    <t>max_purchase</t>
+  </si>
+  <si>
+    <t>is_inventory_warn_able</t>
+  </si>
+  <si>
+    <t>is_refundable</t>
+  </si>
+  <si>
+    <t>is_in_house</t>
+  </si>
+  <si>
+    <t>is_taxable</t>
+  </si>
+  <si>
+    <t>tax_class_name</t>
+  </si>
+  <si>
+    <t>Tow</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Feeding &amp; Nursing</t>
+  </si>
+  <si>
+    <t>Ikea</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>best test</t>
+  </si>
+  <si>
+    <t>class one</t>
   </si>
 </sst>
 </file>
@@ -439,15 +445,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,19 +476,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -502,20 +523,61 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="s">
         <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>160</v>
+      </c>
+      <c r="M2">
+        <v>165</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
